--- a/Symphony/2021/March/Others/Focus RBM (Dpay) Mar'21.xlsx
+++ b/Symphony/2021/March/Others/Focus RBM (Dpay) Mar'21.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13843" uniqueCount="3690">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13844" uniqueCount="3691">
   <si>
     <t>RetailerID</t>
   </si>
@@ -11089,6 +11089,9 @@
   </si>
   <si>
     <t>Komola Super Market , Alaipur , Natore.</t>
+  </si>
+  <si>
+    <t>March 2021 Back Margin</t>
   </si>
 </sst>
 </file>
@@ -78233,7 +78236,7 @@
         <v>307</v>
       </c>
       <c r="L1282" s="25">
-        <f t="shared" ref="L1282:L1345" si="20">J1282+K1282</f>
+        <f t="shared" ref="L1282:L1295" si="20">J1282+K1282</f>
         <v>360</v>
       </c>
       <c r="M1282" s="25" t="s">
@@ -78970,8 +78973,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J5" sqref="J5"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -79005,7 +79008,9 @@
       <c r="F2" s="39"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="40"/>
+      <c r="A3" s="40" t="s">
+        <v>3690</v>
+      </c>
       <c r="B3" s="40"/>
       <c r="C3" s="40"/>
       <c r="D3" s="40"/>
